--- a/data/out/wiki/men/fifa/wc/before_last_wc_fifa.xlsx
+++ b/data/out/wiki/men/fifa/wc/before_last_wc_fifa.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/out/wiki/men/fifa/wc/before_last_wc_fifa.xlsx
+++ b/data/out/wiki/men/fifa/wc/before_last_wc_fifa.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/out/wiki/men/fifa/wc/before_last_wc_fifa.xlsx
+++ b/data/out/wiki/men/fifa/wc/before_last_wc_fifa.xlsx
@@ -451,32 +451,32 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>standing</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>points</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>goals_scored</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>goals_conceded</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>points</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>goals_difference</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>total_matches</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>standing</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
         <v>2</v>
@@ -520,7 +520,7 @@
         <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -555,10 +555,10 @@
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>2</v>
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
@@ -596,13 +596,13 @@
         <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -628,22 +628,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" t="n">
         <v>-2</v>
       </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -669,22 +669,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
         <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -713,16 +713,16 @@
         <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>2</v>
@@ -754,19 +754,19 @@
         <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -792,22 +792,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" t="n">
         <v>-2</v>
       </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -833,22 +833,22 @@
         </is>
       </c>
       <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" t="n">
         <v>7</v>
       </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
-      </c>
       <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
         <v>6</v>
       </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -877,16 +877,16 @@
         <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>2</v>
@@ -915,22 +915,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="n">
         <v>6</v>
       </c>
-      <c r="F12" t="n">
-        <v>2</v>
-      </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>-4</v>
       </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
+        <v>3</v>
+      </c>
+      <c r="H13" t="n">
         <v>-3</v>
       </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1047,10 +1047,10 @@
         <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>2</v>
@@ -1079,22 +1079,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
+        <v>3</v>
+      </c>
+      <c r="H16" t="n">
         <v>-1</v>
       </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1120,22 +1120,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
       </c>
       <c r="G17" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" t="n">
         <v>-1</v>
       </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1161,22 +1161,22 @@
         </is>
       </c>
       <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4</v>
+      </c>
+      <c r="F18" t="n">
         <v>7</v>
       </c>
-      <c r="E18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" t="n">
-        <v>4</v>
-      </c>
       <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
         <v>6</v>
       </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1202,19 +1202,19 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" t="n">
         <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>2</v>
@@ -1243,22 +1243,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" t="n">
         <v>7</v>
       </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>-5</v>
       </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1284,22 +1284,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
+        <v>3</v>
+      </c>
+      <c r="H21" t="n">
         <v>-2</v>
       </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1328,19 +1328,19 @@
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1366,19 +1366,19 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>2</v>
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1448,22 +1448,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="n">
         <v>-1</v>
       </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1489,22 +1489,22 @@
         </is>
       </c>
       <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4</v>
+      </c>
+      <c r="F26" t="n">
         <v>6</v>
       </c>
-      <c r="E26" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" t="n">
-        <v>4</v>
-      </c>
       <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
         <v>5</v>
       </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1533,13 +1533,13 @@
         <v>2</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>2</v>
@@ -1571,22 +1571,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
+        <v>2</v>
+      </c>
+      <c r="H28" t="n">
         <v>-2</v>
       </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="n">
         <v>6</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>-5</v>
       </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1653,22 +1653,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
         <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1694,19 +1694,19 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E31" t="n">
         <v>2</v>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>2</v>
@@ -1735,10 +1735,10 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32" t="n">
         <v>2</v>
@@ -1747,10 +1747,10 @@
         <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -1776,22 +1776,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E33" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
+        <v>4</v>
+      </c>
+      <c r="H33" t="n">
         <v>-4</v>
       </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -1817,22 +1817,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
         <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -1867,10 +1867,10 @@
         <v>2</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>2</v>
@@ -1899,22 +1899,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -1940,22 +1940,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E37" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G37" t="n">
+        <v>4</v>
+      </c>
+      <c r="H37" t="n">
         <v>-2</v>
       </c>
-      <c r="H37" t="n">
-        <v>2</v>
-      </c>
       <c r="I37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -1981,22 +1981,22 @@
         </is>
       </c>
       <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>4</v>
+      </c>
+      <c r="F38" t="n">
         <v>9</v>
       </c>
-      <c r="E38" t="n">
-        <v>2</v>
-      </c>
-      <c r="F38" t="n">
-        <v>4</v>
-      </c>
       <c r="G38" t="n">
+        <v>2</v>
+      </c>
+      <c r="H38" t="n">
         <v>7</v>
       </c>
-      <c r="H38" t="n">
-        <v>2</v>
-      </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>2</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" t="n">
         <v>2</v>
@@ -2034,7 +2034,7 @@
         <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>2</v>
@@ -2063,22 +2063,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F40" t="n">
         <v>2</v>
       </c>
       <c r="G40" t="n">
+        <v>4</v>
+      </c>
+      <c r="H40" t="n">
         <v>-2</v>
       </c>
-      <c r="H40" t="n">
-        <v>2</v>
-      </c>
       <c r="I40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" t="n">
         <v>7</v>
       </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
+      <c r="H41" t="n">
         <v>-6</v>
       </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
       <c r="I41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -2145,22 +2145,22 @@
         </is>
       </c>
       <c r="D42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" t="n">
+        <v>4</v>
+      </c>
+      <c r="F42" t="n">
         <v>5</v>
       </c>
-      <c r="E42" t="n">
-        <v>1</v>
-      </c>
-      <c r="F42" t="n">
-        <v>4</v>
-      </c>
       <c r="G42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -2186,16 +2186,16 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F43" t="n">
         <v>3</v>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
         <v>2</v>
@@ -2227,22 +2227,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
         <v>1</v>
       </c>
       <c r="G44" t="n">
+        <v>3</v>
+      </c>
+      <c r="H44" t="n">
         <v>-2</v>
       </c>
-      <c r="H44" t="n">
-        <v>2</v>
-      </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -2268,22 +2268,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" t="n">
         <v>5</v>
       </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
+      <c r="H45" t="n">
         <v>-4</v>
       </c>
-      <c r="H45" t="n">
-        <v>2</v>
-      </c>
       <c r="I45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2312,19 +2312,19 @@
         <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -2350,19 +2350,19 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>2</v>
@@ -2391,22 +2391,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -2432,22 +2432,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="D50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" t="n">
+        <v>4</v>
+      </c>
+      <c r="F50" t="n">
         <v>5</v>
       </c>
-      <c r="E50" t="n">
-        <v>2</v>
-      </c>
-      <c r="F50" t="n">
-        <v>4</v>
-      </c>
       <c r="G50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -2514,19 +2514,19 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>2</v>
@@ -2555,22 +2555,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E52" t="n">
+        <v>3</v>
+      </c>
+      <c r="F52" t="n">
+        <v>4</v>
+      </c>
+      <c r="G52" t="n">
         <v>5</v>
       </c>
-      <c r="F52" t="n">
-        <v>3</v>
-      </c>
-      <c r="G52" t="n">
+      <c r="H52" t="n">
         <v>-1</v>
       </c>
-      <c r="H52" t="n">
-        <v>2</v>
-      </c>
       <c r="I52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -2596,22 +2596,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2</v>
+      </c>
+      <c r="G53" t="n">
         <v>5</v>
       </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="n">
+      <c r="H53" t="n">
         <v>-3</v>
       </c>
-      <c r="H53" t="n">
-        <v>2</v>
-      </c>
       <c r="I53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -2637,22 +2637,22 @@
         </is>
       </c>
       <c r="D54" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" t="n">
+        <v>6</v>
+      </c>
+      <c r="F54" t="n">
         <v>5</v>
       </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" t="n">
-        <v>6</v>
-      </c>
       <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
         <v>5</v>
       </c>
-      <c r="H54" t="n">
-        <v>2</v>
-      </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -2678,16 +2678,16 @@
         </is>
       </c>
       <c r="D55" t="n">
+        <v>2</v>
+      </c>
+      <c r="E55" t="n">
+        <v>4</v>
+      </c>
+      <c r="F55" t="n">
         <v>5</v>
       </c>
-      <c r="E55" t="n">
-        <v>3</v>
-      </c>
-      <c r="F55" t="n">
-        <v>4</v>
-      </c>
       <c r="G55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H55" t="n">
         <v>2</v>
@@ -2719,22 +2719,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E56" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2</v>
+      </c>
+      <c r="G56" t="n">
         <v>5</v>
       </c>
-      <c r="F56" t="n">
-        <v>1</v>
-      </c>
-      <c r="G56" t="n">
+      <c r="H56" t="n">
         <v>-3</v>
       </c>
-      <c r="H56" t="n">
-        <v>2</v>
-      </c>
       <c r="I56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -2760,22 +2760,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" t="n">
         <v>5</v>
       </c>
-      <c r="F57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" t="n">
+      <c r="H57" t="n">
         <v>-4</v>
       </c>
-      <c r="H57" t="n">
-        <v>2</v>
-      </c>
       <c r="I57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -2801,22 +2801,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -2842,19 +2842,19 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>2</v>
@@ -2883,7 +2883,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E60" t="n">
         <v>2</v>
@@ -2892,13 +2892,13 @@
         <v>2</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -2924,22 +2924,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E61" t="n">
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" t="n">
         <v>-1</v>
       </c>
-      <c r="H61" t="n">
-        <v>2</v>
-      </c>
       <c r="I61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -2965,22 +2965,22 @@
         </is>
       </c>
       <c r="D62" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" t="n">
         <v>6</v>
-      </c>
-      <c r="E62" t="n">
-        <v>1</v>
       </c>
       <c r="F62" t="n">
         <v>6</v>
       </c>
       <c r="G62" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" t="n">
         <v>5</v>
       </c>
-      <c r="H62" t="n">
-        <v>2</v>
-      </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -3006,13 +3006,13 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -3047,22 +3047,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E64" t="n">
         <v>3</v>
       </c>
       <c r="F64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -3088,22 +3088,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
         <v>8</v>
       </c>
-      <c r="F65" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" t="n">
+      <c r="H65" t="n">
         <v>-8</v>
       </c>
-      <c r="H65" t="n">
-        <v>2</v>
-      </c>
       <c r="I65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -3129,22 +3129,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -3173,16 +3173,16 @@
         <v>2</v>
       </c>
       <c r="E67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>2</v>
@@ -3211,22 +3211,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F68" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -3293,22 +3293,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F70" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
         <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E71" t="n">
         <v>3</v>
@@ -3343,10 +3343,10 @@
         <v>3</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>2</v>
@@ -3375,22 +3375,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -3416,22 +3416,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73" t="n">
+        <v>3</v>
+      </c>
+      <c r="H73" t="n">
         <v>-2</v>
       </c>
-      <c r="H73" t="n">
-        <v>2</v>
-      </c>
       <c r="I73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -3457,22 +3457,22 @@
         </is>
       </c>
       <c r="D74" t="n">
+        <v>1</v>
+      </c>
+      <c r="E74" t="n">
+        <v>6</v>
+      </c>
+      <c r="F74" t="n">
         <v>5</v>
       </c>
-      <c r="E74" t="n">
-        <v>1</v>
-      </c>
-      <c r="F74" t="n">
-        <v>6</v>
-      </c>
       <c r="G74" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -3498,19 +3498,19 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>2</v>
@@ -3539,22 +3539,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E76" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G76" t="n">
+        <v>3</v>
+      </c>
+      <c r="H76" t="n">
         <v>-1</v>
       </c>
-      <c r="H76" t="n">
-        <v>2</v>
-      </c>
       <c r="I76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -3580,22 +3580,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E77" t="n">
+        <v>1</v>
+      </c>
+      <c r="F77" t="n">
+        <v>2</v>
+      </c>
+      <c r="G77" t="n">
         <v>5</v>
       </c>
-      <c r="F77" t="n">
-        <v>1</v>
-      </c>
-      <c r="G77" t="n">
+      <c r="H77" t="n">
         <v>-3</v>
       </c>
-      <c r="H77" t="n">
-        <v>2</v>
-      </c>
       <c r="I77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -3621,22 +3621,22 @@
         </is>
       </c>
       <c r="D78" t="n">
+        <v>1</v>
+      </c>
+      <c r="E78" t="n">
+        <v>4</v>
+      </c>
+      <c r="F78" t="n">
         <v>5</v>
       </c>
-      <c r="E78" t="n">
-        <v>2</v>
-      </c>
-      <c r="F78" t="n">
-        <v>4</v>
-      </c>
       <c r="G78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -3662,19 +3662,19 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>2</v>
@@ -3703,7 +3703,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E80" t="n">
         <v>2</v>
@@ -3712,13 +3712,13 @@
         <v>2</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E81" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F81" t="n">
         <v>1</v>
       </c>
       <c r="G81" t="n">
+        <v>4</v>
+      </c>
+      <c r="H81" t="n">
         <v>-3</v>
       </c>
-      <c r="H81" t="n">
-        <v>2</v>
-      </c>
       <c r="I81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -3785,22 +3785,22 @@
         </is>
       </c>
       <c r="D82" t="n">
+        <v>1</v>
+      </c>
+      <c r="E82" t="n">
+        <v>6</v>
+      </c>
+      <c r="F82" t="n">
         <v>7</v>
       </c>
-      <c r="E82" t="n">
-        <v>0</v>
-      </c>
-      <c r="F82" t="n">
-        <v>6</v>
-      </c>
       <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
         <v>7</v>
       </c>
-      <c r="H82" t="n">
-        <v>2</v>
-      </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -3829,16 +3829,16 @@
         <v>2</v>
       </c>
       <c r="E83" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>2</v>
@@ -3867,22 +3867,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E84" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F84" t="n">
         <v>1</v>
       </c>
       <c r="G84" t="n">
+        <v>4</v>
+      </c>
+      <c r="H84" t="n">
         <v>-3</v>
       </c>
-      <c r="H84" t="n">
-        <v>2</v>
-      </c>
       <c r="I84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -3908,22 +3908,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
         <v>5</v>
       </c>
-      <c r="F85" t="n">
-        <v>0</v>
-      </c>
-      <c r="G85" t="n">
+      <c r="H85" t="n">
         <v>-5</v>
       </c>
-      <c r="H85" t="n">
-        <v>2</v>
-      </c>
       <c r="I85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -3949,13 +3949,13 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F86" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -3964,7 +3964,7 @@
         <v>2</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -3990,19 +3990,19 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>2</v>
@@ -4031,22 +4031,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E88" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G88" t="n">
+        <v>3</v>
+      </c>
+      <c r="H88" t="n">
         <v>-1</v>
       </c>
-      <c r="H88" t="n">
-        <v>2</v>
-      </c>
       <c r="I88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
@@ -4072,22 +4072,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E89" t="n">
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89" t="n">
+        <v>1</v>
+      </c>
+      <c r="H89" t="n">
         <v>-1</v>
       </c>
-      <c r="H89" t="n">
-        <v>2</v>
-      </c>
       <c r="I89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
@@ -4113,22 +4113,22 @@
         </is>
       </c>
       <c r="D90" t="n">
+        <v>1</v>
+      </c>
+      <c r="E90" t="n">
+        <v>4</v>
+      </c>
+      <c r="F90" t="n">
         <v>5</v>
       </c>
-      <c r="E90" t="n">
-        <v>0</v>
-      </c>
-      <c r="F90" t="n">
-        <v>4</v>
-      </c>
       <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
         <v>5</v>
       </c>
-      <c r="H90" t="n">
-        <v>2</v>
-      </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
@@ -4154,16 +4154,16 @@
         </is>
       </c>
       <c r="D91" t="n">
+        <v>2</v>
+      </c>
+      <c r="E91" t="n">
+        <v>4</v>
+      </c>
+      <c r="F91" t="n">
         <v>5</v>
       </c>
-      <c r="E91" t="n">
-        <v>3</v>
-      </c>
-      <c r="F91" t="n">
-        <v>4</v>
-      </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H91" t="n">
         <v>2</v>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E92" t="n">
         <v>2</v>
@@ -4204,13 +4204,13 @@
         <v>2</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
@@ -4236,22 +4236,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1</v>
+      </c>
+      <c r="G93" t="n">
         <v>8</v>
       </c>
-      <c r="F93" t="n">
-        <v>0</v>
-      </c>
-      <c r="G93" t="n">
+      <c r="H93" t="n">
         <v>-7</v>
       </c>
-      <c r="H93" t="n">
-        <v>2</v>
-      </c>
       <c r="I93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
@@ -4277,10 +4277,10 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F94" t="n">
         <v>4</v>
@@ -4292,7 +4292,7 @@
         <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
@@ -4318,19 +4318,19 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>2</v>
@@ -4359,22 +4359,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
@@ -4400,22 +4400,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E97" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G97" t="n">
+        <v>4</v>
+      </c>
+      <c r="H97" t="n">
         <v>-3</v>
       </c>
-      <c r="H97" t="n">
-        <v>2</v>
-      </c>
       <c r="I97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
@@ -4441,22 +4441,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E98" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F98" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
         <v>2</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
@@ -4482,19 +4482,19 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F99" t="n">
         <v>3</v>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>2</v>
@@ -4523,22 +4523,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E100" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F100" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
@@ -4564,22 +4564,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
       </c>
       <c r="G101" t="n">
+        <v>3</v>
+      </c>
+      <c r="H101" t="n">
         <v>-3</v>
       </c>
-      <c r="H101" t="n">
-        <v>2</v>
-      </c>
       <c r="I101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
@@ -4605,22 +4605,22 @@
         </is>
       </c>
       <c r="D102" t="n">
+        <v>1</v>
+      </c>
+      <c r="E102" t="n">
         <v>6</v>
-      </c>
-      <c r="E102" t="n">
-        <v>0</v>
       </c>
       <c r="F102" t="n">
         <v>6</v>
       </c>
       <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
         <v>6</v>
       </c>
-      <c r="H102" t="n">
-        <v>2</v>
-      </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
@@ -4646,19 +4646,19 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E103" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F103" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G103" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I103" t="n">
         <v>2</v>
@@ -4687,22 +4687,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
       </c>
       <c r="G104" t="n">
+        <v>2</v>
+      </c>
+      <c r="H104" t="n">
         <v>-2</v>
       </c>
-      <c r="H104" t="n">
-        <v>2</v>
-      </c>
       <c r="I104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
@@ -4728,22 +4728,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1</v>
+      </c>
+      <c r="G105" t="n">
         <v>8</v>
       </c>
-      <c r="F105" t="n">
-        <v>0</v>
-      </c>
-      <c r="G105" t="n">
+      <c r="H105" t="n">
         <v>-7</v>
       </c>
-      <c r="H105" t="n">
-        <v>2</v>
-      </c>
       <c r="I105" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
@@ -4769,22 +4769,22 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E106" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F106" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
@@ -4813,16 +4813,16 @@
         <v>2</v>
       </c>
       <c r="E107" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F107" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>2</v>
@@ -4851,22 +4851,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F108" t="n">
         <v>1</v>
       </c>
       <c r="G108" t="n">
+        <v>2</v>
+      </c>
+      <c r="H108" t="n">
         <v>-1</v>
       </c>
-      <c r="H108" t="n">
-        <v>2</v>
-      </c>
       <c r="I108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
@@ -4892,22 +4892,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E109" t="n">
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G109" t="n">
+        <v>1</v>
+      </c>
+      <c r="H109" t="n">
         <v>-1</v>
       </c>
-      <c r="H109" t="n">
-        <v>2</v>
-      </c>
       <c r="I109" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
@@ -4933,22 +4933,22 @@
         </is>
       </c>
       <c r="D110" t="n">
+        <v>1</v>
+      </c>
+      <c r="E110" t="n">
         <v>6</v>
-      </c>
-      <c r="E110" t="n">
-        <v>2</v>
       </c>
       <c r="F110" t="n">
         <v>6</v>
       </c>
       <c r="G110" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
@@ -4974,19 +4974,19 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E111" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F111" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>2</v>
@@ -5018,19 +5018,19 @@
         <v>3</v>
       </c>
       <c r="E112" t="n">
+        <v>1</v>
+      </c>
+      <c r="F112" t="n">
+        <v>3</v>
+      </c>
+      <c r="G112" t="n">
         <v>5</v>
       </c>
-      <c r="F112" t="n">
-        <v>1</v>
-      </c>
-      <c r="G112" t="n">
+      <c r="H112" t="n">
         <v>-2</v>
       </c>
-      <c r="H112" t="n">
-        <v>2</v>
-      </c>
       <c r="I112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J112" t="inlineStr">
         <is>
@@ -5056,22 +5056,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E113" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G113" t="n">
+        <v>4</v>
+      </c>
+      <c r="H113" t="n">
         <v>-3</v>
       </c>
-      <c r="H113" t="n">
-        <v>2</v>
-      </c>
       <c r="I113" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J113" t="inlineStr">
         <is>
@@ -5097,22 +5097,22 @@
         </is>
       </c>
       <c r="D114" t="n">
+        <v>1</v>
+      </c>
+      <c r="E114" t="n">
         <v>6</v>
-      </c>
-      <c r="E114" t="n">
-        <v>1</v>
       </c>
       <c r="F114" t="n">
         <v>6</v>
       </c>
       <c r="G114" t="n">
+        <v>1</v>
+      </c>
+      <c r="H114" t="n">
         <v>5</v>
       </c>
-      <c r="H114" t="n">
-        <v>2</v>
-      </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J114" t="inlineStr">
         <is>
@@ -5138,16 +5138,16 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E115" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F115" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H115" t="n">
         <v>2</v>
@@ -5179,22 +5179,22 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E116" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G116" t="n">
+        <v>3</v>
+      </c>
+      <c r="H116" t="n">
         <v>-1</v>
       </c>
-      <c r="H116" t="n">
-        <v>2</v>
-      </c>
       <c r="I116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
@@ -5220,22 +5220,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" t="n">
         <v>6</v>
       </c>
-      <c r="F117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G117" t="n">
+      <c r="H117" t="n">
         <v>-6</v>
       </c>
-      <c r="H117" t="n">
-        <v>2</v>
-      </c>
       <c r="I117" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J117" t="inlineStr">
         <is>
@@ -5261,22 +5261,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E118" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F118" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H118" t="n">
         <v>2</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
@@ -5302,19 +5302,19 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E119" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F119" t="n">
         <v>4</v>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>2</v>
@@ -5343,22 +5343,22 @@
         </is>
       </c>
       <c r="D120" t="n">
+        <v>3</v>
+      </c>
+      <c r="E120" t="n">
+        <v>3</v>
+      </c>
+      <c r="F120" t="n">
         <v>6</v>
       </c>
-      <c r="E120" t="n">
-        <v>3</v>
-      </c>
-      <c r="F120" t="n">
-        <v>3</v>
-      </c>
       <c r="G120" t="n">
         <v>3</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J120" t="inlineStr">
         <is>
@@ -5384,22 +5384,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0</v>
+      </c>
+      <c r="G121" t="n">
         <v>6</v>
       </c>
-      <c r="F121" t="n">
-        <v>0</v>
-      </c>
-      <c r="G121" t="n">
+      <c r="H121" t="n">
         <v>-6</v>
       </c>
-      <c r="H121" t="n">
-        <v>2</v>
-      </c>
       <c r="I121" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J121" t="inlineStr">
         <is>
@@ -5425,22 +5425,22 @@
         </is>
       </c>
       <c r="D122" t="n">
+        <v>1</v>
+      </c>
+      <c r="E122" t="n">
+        <v>4</v>
+      </c>
+      <c r="F122" t="n">
         <v>9</v>
       </c>
-      <c r="E122" t="n">
-        <v>1</v>
-      </c>
-      <c r="F122" t="n">
-        <v>4</v>
-      </c>
       <c r="G122" t="n">
+        <v>1</v>
+      </c>
+      <c r="H122" t="n">
         <v>8</v>
       </c>
-      <c r="H122" t="n">
-        <v>2</v>
-      </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J122" t="inlineStr">
         <is>
@@ -5469,16 +5469,16 @@
         <v>2</v>
       </c>
       <c r="E123" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F123" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>2</v>
@@ -5507,7 +5507,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E124" t="n">
         <v>2</v>
@@ -5516,13 +5516,13 @@
         <v>2</v>
       </c>
       <c r="G124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J124" t="inlineStr">
         <is>
@@ -5548,22 +5548,22 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" t="n">
         <v>9</v>
       </c>
-      <c r="F125" t="n">
-        <v>0</v>
-      </c>
-      <c r="G125" t="n">
+      <c r="H125" t="n">
         <v>-9</v>
       </c>
-      <c r="H125" t="n">
-        <v>2</v>
-      </c>
       <c r="I125" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J125" t="inlineStr">
         <is>
@@ -5589,22 +5589,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E126" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F126" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J126" t="inlineStr">
         <is>
@@ -5633,16 +5633,16 @@
         <v>2</v>
       </c>
       <c r="E127" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F127" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>2</v>
@@ -5671,22 +5671,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E128" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F128" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J128" t="inlineStr">
         <is>
@@ -5712,22 +5712,22 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" t="n">
+        <v>3</v>
+      </c>
+      <c r="H129" t="n">
         <v>-2</v>
       </c>
-      <c r="H129" t="n">
-        <v>2</v>
-      </c>
       <c r="I129" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J129" t="inlineStr">
         <is>
@@ -5753,22 +5753,22 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E130" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F130" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
         <v>2</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J130" t="inlineStr">
         <is>
@@ -5794,19 +5794,19 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E131" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F131" t="n">
         <v>3</v>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>2</v>
@@ -5835,22 +5835,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E132" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J132" t="inlineStr">
         <is>
@@ -5876,22 +5876,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E133" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G133" t="n">
+        <v>4</v>
+      </c>
+      <c r="H133" t="n">
         <v>-3</v>
       </c>
-      <c r="H133" t="n">
-        <v>2</v>
-      </c>
       <c r="I133" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J133" t="inlineStr">
         <is>
@@ -5917,22 +5917,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E134" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F134" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J134" t="inlineStr">
         <is>
@@ -5961,16 +5961,16 @@
         <v>2</v>
       </c>
       <c r="E135" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>2</v>
@@ -6002,19 +6002,19 @@
         <v>3</v>
       </c>
       <c r="E136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F136" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G136" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J136" t="inlineStr">
         <is>
@@ -6040,22 +6040,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E137" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F137" t="n">
         <v>1</v>
       </c>
       <c r="G137" t="n">
+        <v>3</v>
+      </c>
+      <c r="H137" t="n">
         <v>-2</v>
       </c>
-      <c r="H137" t="n">
-        <v>2</v>
-      </c>
       <c r="I137" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J137" t="inlineStr">
         <is>
@@ -6081,22 +6081,22 @@
         </is>
       </c>
       <c r="D138" t="n">
+        <v>1</v>
+      </c>
+      <c r="E138" t="n">
+        <v>6</v>
+      </c>
+      <c r="F138" t="n">
         <v>5</v>
       </c>
-      <c r="E138" t="n">
-        <v>0</v>
-      </c>
-      <c r="F138" t="n">
-        <v>6</v>
-      </c>
       <c r="G138" t="n">
+        <v>0</v>
+      </c>
+      <c r="H138" t="n">
         <v>5</v>
       </c>
-      <c r="H138" t="n">
-        <v>2</v>
-      </c>
       <c r="I138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J138" t="inlineStr">
         <is>
@@ -6122,19 +6122,19 @@
         </is>
       </c>
       <c r="D139" t="n">
+        <v>2</v>
+      </c>
+      <c r="E139" t="n">
+        <v>6</v>
+      </c>
+      <c r="F139" t="n">
         <v>5</v>
       </c>
-      <c r="E139" t="n">
-        <v>2</v>
-      </c>
-      <c r="F139" t="n">
-        <v>6</v>
-      </c>
       <c r="G139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I139" t="n">
         <v>2</v>
@@ -6163,22 +6163,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
       </c>
       <c r="G140" t="n">
+        <v>3</v>
+      </c>
+      <c r="H140" t="n">
         <v>-3</v>
       </c>
-      <c r="H140" t="n">
-        <v>2</v>
-      </c>
       <c r="I140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J140" t="inlineStr">
         <is>
@@ -6204,22 +6204,22 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E141" t="n">
+        <v>0</v>
+      </c>
+      <c r="F141" t="n">
+        <v>2</v>
+      </c>
+      <c r="G141" t="n">
         <v>7</v>
       </c>
-      <c r="F141" t="n">
-        <v>0</v>
-      </c>
-      <c r="G141" t="n">
+      <c r="H141" t="n">
         <v>-5</v>
       </c>
-      <c r="H141" t="n">
-        <v>2</v>
-      </c>
       <c r="I141" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J141" t="inlineStr">
         <is>
@@ -6245,22 +6245,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E142" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F142" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J142" t="inlineStr">
         <is>
@@ -6286,19 +6286,19 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E143" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F143" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>2</v>
@@ -6327,22 +6327,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G144" t="n">
+        <v>2</v>
+      </c>
+      <c r="H144" t="n">
         <v>-2</v>
       </c>
-      <c r="H144" t="n">
-        <v>2</v>
-      </c>
       <c r="I144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J144" t="inlineStr">
         <is>
@@ -6368,22 +6368,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
       </c>
       <c r="G145" t="n">
+        <v>2</v>
+      </c>
+      <c r="H145" t="n">
         <v>-2</v>
       </c>
-      <c r="H145" t="n">
-        <v>2</v>
-      </c>
       <c r="I145" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J145" t="inlineStr">
         <is>
@@ -6409,22 +6409,22 @@
         </is>
       </c>
       <c r="D146" t="n">
+        <v>1</v>
+      </c>
+      <c r="E146" t="n">
+        <v>6</v>
+      </c>
+      <c r="F146" t="n">
         <v>8</v>
       </c>
-      <c r="E146" t="n">
-        <v>1</v>
-      </c>
-      <c r="F146" t="n">
-        <v>6</v>
-      </c>
       <c r="G146" t="n">
+        <v>1</v>
+      </c>
+      <c r="H146" t="n">
         <v>7</v>
       </c>
-      <c r="H146" t="n">
-        <v>2</v>
-      </c>
       <c r="I146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J146" t="inlineStr">
         <is>
@@ -6450,16 +6450,16 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E147" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F147" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H147" t="n">
         <v>2</v>
@@ -6491,22 +6491,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E148" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G148" t="n">
+        <v>4</v>
+      </c>
+      <c r="H148" t="n">
         <v>-2</v>
       </c>
-      <c r="H148" t="n">
-        <v>2</v>
-      </c>
       <c r="I148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J148" t="inlineStr">
         <is>
@@ -6532,22 +6532,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E149" t="n">
+        <v>0</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0</v>
+      </c>
+      <c r="G149" t="n">
         <v>7</v>
       </c>
-      <c r="F149" t="n">
-        <v>0</v>
-      </c>
-      <c r="G149" t="n">
+      <c r="H149" t="n">
         <v>-7</v>
       </c>
-      <c r="H149" t="n">
-        <v>2</v>
-      </c>
       <c r="I149" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J149" t="inlineStr">
         <is>
@@ -6573,22 +6573,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E150" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F150" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J150" t="inlineStr">
         <is>
@@ -6614,16 +6614,16 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E151" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F151" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H151" t="n">
         <v>2</v>
@@ -6655,22 +6655,22 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E152" t="n">
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G152" t="n">
+        <v>1</v>
+      </c>
+      <c r="H152" t="n">
         <v>-1</v>
       </c>
-      <c r="H152" t="n">
-        <v>2</v>
-      </c>
       <c r="I152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J152" t="inlineStr">
         <is>
@@ -6696,22 +6696,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E153" t="n">
+        <v>0</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1</v>
+      </c>
+      <c r="G153" t="n">
         <v>5</v>
       </c>
-      <c r="F153" t="n">
-        <v>0</v>
-      </c>
-      <c r="G153" t="n">
+      <c r="H153" t="n">
         <v>-4</v>
       </c>
-      <c r="H153" t="n">
-        <v>2</v>
-      </c>
       <c r="I153" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J153" t="inlineStr">
         <is>
@@ -6737,22 +6737,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E154" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F154" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H154" t="n">
         <v>2</v>
       </c>
       <c r="I154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J154" t="inlineStr">
         <is>
@@ -6778,19 +6778,19 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E155" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F155" t="n">
         <v>3</v>
       </c>
       <c r="G155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>2</v>
@@ -6819,22 +6819,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E156" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J156" t="inlineStr">
         <is>
@@ -6860,22 +6860,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E157" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F157" t="n">
         <v>1</v>
       </c>
       <c r="G157" t="n">
+        <v>4</v>
+      </c>
+      <c r="H157" t="n">
         <v>-3</v>
       </c>
-      <c r="H157" t="n">
-        <v>2</v>
-      </c>
       <c r="I157" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J157" t="inlineStr">
         <is>
@@ -6901,22 +6901,22 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E158" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F158" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J158" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E159" t="n">
         <v>3</v>
@@ -6951,10 +6951,10 @@
         <v>3</v>
       </c>
       <c r="G159" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>2</v>
@@ -6983,22 +6983,22 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E160" t="n">
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G160" t="n">
+        <v>1</v>
+      </c>
+      <c r="H160" t="n">
         <v>-1</v>
       </c>
-      <c r="H160" t="n">
-        <v>2</v>
-      </c>
       <c r="I160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J160" t="inlineStr">
         <is>
@@ -7024,22 +7024,22 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E161" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F161" t="n">
         <v>1</v>
       </c>
       <c r="G161" t="n">
+        <v>3</v>
+      </c>
+      <c r="H161" t="n">
         <v>-2</v>
       </c>
-      <c r="H161" t="n">
-        <v>2</v>
-      </c>
       <c r="I161" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J161" t="inlineStr">
         <is>
@@ -7065,22 +7065,22 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E162" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F162" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H162" t="n">
         <v>2</v>
       </c>
       <c r="I162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J162" t="inlineStr">
         <is>
@@ -7106,19 +7106,19 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E163" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F163" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>2</v>
@@ -7147,22 +7147,22 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J164" t="inlineStr">
         <is>
@@ -7188,22 +7188,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E165" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G165" t="n">
+        <v>4</v>
+      </c>
+      <c r="H165" t="n">
         <v>-3</v>
       </c>
-      <c r="H165" t="n">
-        <v>2</v>
-      </c>
       <c r="I165" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J165" t="inlineStr">
         <is>
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="D166" t="n">
+        <v>1</v>
+      </c>
+      <c r="E166" t="n">
+        <v>6</v>
+      </c>
+      <c r="F166" t="n">
         <v>7</v>
       </c>
-      <c r="E166" t="n">
-        <v>1</v>
-      </c>
-      <c r="F166" t="n">
+      <c r="G166" t="n">
+        <v>1</v>
+      </c>
+      <c r="H166" t="n">
         <v>6</v>
       </c>
-      <c r="G166" t="n">
-        <v>6</v>
-      </c>
-      <c r="H166" t="n">
-        <v>2</v>
-      </c>
       <c r="I166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J166" t="inlineStr">
         <is>
@@ -7270,19 +7270,19 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E167" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F167" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G167" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>2</v>
@@ -7314,19 +7314,19 @@
         <v>3</v>
       </c>
       <c r="E168" t="n">
+        <v>1</v>
+      </c>
+      <c r="F168" t="n">
+        <v>3</v>
+      </c>
+      <c r="G168" t="n">
         <v>5</v>
       </c>
-      <c r="F168" t="n">
-        <v>1</v>
-      </c>
-      <c r="G168" t="n">
+      <c r="H168" t="n">
         <v>-2</v>
       </c>
-      <c r="H168" t="n">
-        <v>2</v>
-      </c>
       <c r="I168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J168" t="inlineStr">
         <is>
@@ -7352,22 +7352,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E169" t="n">
+        <v>1</v>
+      </c>
+      <c r="F169" t="n">
+        <v>2</v>
+      </c>
+      <c r="G169" t="n">
         <v>6</v>
       </c>
-      <c r="F169" t="n">
-        <v>1</v>
-      </c>
-      <c r="G169" t="n">
+      <c r="H169" t="n">
         <v>-4</v>
       </c>
-      <c r="H169" t="n">
-        <v>2</v>
-      </c>
       <c r="I169" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J169" t="inlineStr">
         <is>
@@ -7393,22 +7393,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E170" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F170" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J170" t="inlineStr">
         <is>
@@ -7434,16 +7434,16 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E171" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F171" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H171" t="n">
         <v>2</v>
@@ -7475,22 +7475,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G172" t="n">
+        <v>2</v>
+      </c>
+      <c r="H172" t="n">
         <v>-2</v>
       </c>
-      <c r="H172" t="n">
-        <v>2</v>
-      </c>
       <c r="I172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J172" t="inlineStr">
         <is>
@@ -7516,22 +7516,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E173" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F173" t="n">
         <v>1</v>
       </c>
       <c r="G173" t="n">
+        <v>4</v>
+      </c>
+      <c r="H173" t="n">
         <v>-3</v>
       </c>
-      <c r="H173" t="n">
-        <v>2</v>
-      </c>
       <c r="I173" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J173" t="inlineStr">
         <is>
@@ -7557,22 +7557,22 @@
         </is>
       </c>
       <c r="D174" t="n">
+        <v>1</v>
+      </c>
+      <c r="E174" t="n">
+        <v>6</v>
+      </c>
+      <c r="F174" t="n">
         <v>5</v>
       </c>
-      <c r="E174" t="n">
-        <v>1</v>
-      </c>
-      <c r="F174" t="n">
-        <v>6</v>
-      </c>
       <c r="G174" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J174" t="inlineStr">
         <is>
@@ -7598,19 +7598,19 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E175" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F175" t="n">
         <v>3</v>
       </c>
       <c r="G175" t="n">
+        <v>4</v>
+      </c>
+      <c r="H175" t="n">
         <v>-1</v>
-      </c>
-      <c r="H175" t="n">
-        <v>2</v>
       </c>
       <c r="I175" t="n">
         <v>2</v>
@@ -7639,22 +7639,22 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E176" t="n">
         <v>3</v>
       </c>
       <c r="F176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G176" t="n">
+        <v>3</v>
+      </c>
+      <c r="H176" t="n">
         <v>-1</v>
       </c>
-      <c r="H176" t="n">
-        <v>2</v>
-      </c>
       <c r="I176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J176" t="inlineStr">
         <is>
@@ -7680,22 +7680,22 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G177" t="n">
+        <v>3</v>
+      </c>
+      <c r="H177" t="n">
         <v>-2</v>
       </c>
-      <c r="H177" t="n">
-        <v>2</v>
-      </c>
       <c r="I177" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J177" t="inlineStr">
         <is>
@@ -7721,22 +7721,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E178" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F178" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J178" t="inlineStr">
         <is>
@@ -7762,19 +7762,19 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F179" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G179" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>2</v>
@@ -7803,22 +7803,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J180" t="inlineStr">
         <is>
@@ -7844,22 +7844,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E181" t="n">
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G181" t="n">
+        <v>1</v>
+      </c>
+      <c r="H181" t="n">
         <v>-1</v>
       </c>
-      <c r="H181" t="n">
-        <v>2</v>
-      </c>
       <c r="I181" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J181" t="inlineStr">
         <is>
@@ -7885,22 +7885,22 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E182" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F182" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J182" t="inlineStr">
         <is>
@@ -7926,19 +7926,19 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E183" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F183" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G183" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I183" t="n">
         <v>2</v>
@@ -7967,22 +7967,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E184" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F184" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J184" t="inlineStr">
         <is>
@@ -8008,22 +8008,22 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E185" t="n">
+        <v>1</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1</v>
+      </c>
+      <c r="G185" t="n">
         <v>5</v>
       </c>
-      <c r="F185" t="n">
-        <v>1</v>
-      </c>
-      <c r="G185" t="n">
+      <c r="H185" t="n">
         <v>-4</v>
       </c>
-      <c r="H185" t="n">
-        <v>2</v>
-      </c>
       <c r="I185" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J185" t="inlineStr">
         <is>
@@ -8049,22 +8049,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E186" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F186" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J186" t="inlineStr">
         <is>
@@ -8090,19 +8090,19 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E187" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F187" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="n">
         <v>2</v>
@@ -8131,22 +8131,22 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E188" t="n">
         <v>3</v>
       </c>
       <c r="F188" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G188" t="n">
+        <v>3</v>
+      </c>
+      <c r="H188" t="n">
         <v>-1</v>
       </c>
-      <c r="H188" t="n">
-        <v>2</v>
-      </c>
       <c r="I188" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J188" t="inlineStr">
         <is>
@@ -8172,22 +8172,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G189" t="n">
+        <v>3</v>
+      </c>
+      <c r="H189" t="n">
         <v>-2</v>
       </c>
-      <c r="H189" t="n">
-        <v>2</v>
-      </c>
       <c r="I189" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J189" t="inlineStr">
         <is>
@@ -8213,22 +8213,22 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E190" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F190" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H190" t="n">
         <v>2</v>
       </c>
       <c r="I190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J190" t="inlineStr">
         <is>
@@ -8263,10 +8263,10 @@
         <v>2</v>
       </c>
       <c r="G191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>2</v>
@@ -8295,7 +8295,7 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E192" t="n">
         <v>2</v>
@@ -8304,13 +8304,13 @@
         <v>2</v>
       </c>
       <c r="G192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J192" t="inlineStr">
         <is>
@@ -8336,22 +8336,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E193" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F193" t="n">
         <v>1</v>
       </c>
       <c r="G193" t="n">
+        <v>3</v>
+      </c>
+      <c r="H193" t="n">
         <v>-2</v>
       </c>
-      <c r="H193" t="n">
-        <v>2</v>
-      </c>
       <c r="I193" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J193" t="inlineStr">
         <is>
@@ -8377,22 +8377,22 @@
         </is>
       </c>
       <c r="D194" t="n">
+        <v>1</v>
+      </c>
+      <c r="E194" t="n">
+        <v>6</v>
+      </c>
+      <c r="F194" t="n">
         <v>5</v>
       </c>
-      <c r="E194" t="n">
-        <v>2</v>
-      </c>
-      <c r="F194" t="n">
-        <v>6</v>
-      </c>
       <c r="G194" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J194" t="inlineStr">
         <is>
@@ -8418,19 +8418,19 @@
         </is>
       </c>
       <c r="D195" t="n">
+        <v>2</v>
+      </c>
+      <c r="E195" t="n">
+        <v>4</v>
+      </c>
+      <c r="F195" t="n">
         <v>7</v>
       </c>
-      <c r="E195" t="n">
-        <v>0</v>
-      </c>
-      <c r="F195" t="n">
-        <v>4</v>
-      </c>
       <c r="G195" t="n">
+        <v>0</v>
+      </c>
+      <c r="H195" t="n">
         <v>7</v>
-      </c>
-      <c r="H195" t="n">
-        <v>2</v>
       </c>
       <c r="I195" t="n">
         <v>2</v>
@@ -8459,22 +8459,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E196" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F196" t="n">
         <v>1</v>
       </c>
       <c r="G196" t="n">
+        <v>3</v>
+      </c>
+      <c r="H196" t="n">
         <v>-2</v>
       </c>
-      <c r="H196" t="n">
-        <v>2</v>
-      </c>
       <c r="I196" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J196" t="inlineStr">
         <is>
@@ -8500,22 +8500,22 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E197" t="n">
+        <v>0</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1</v>
+      </c>
+      <c r="G197" t="n">
         <v>9</v>
       </c>
-      <c r="F197" t="n">
-        <v>0</v>
-      </c>
-      <c r="G197" t="n">
+      <c r="H197" t="n">
         <v>-8</v>
       </c>
-      <c r="H197" t="n">
-        <v>2</v>
-      </c>
       <c r="I197" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J197" t="inlineStr">
         <is>
@@ -8541,22 +8541,22 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E198" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F198" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H198" t="n">
         <v>2</v>
       </c>
       <c r="I198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J198" t="inlineStr">
         <is>
@@ -8585,16 +8585,16 @@
         <v>2</v>
       </c>
       <c r="E199" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F199" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I199" t="n">
         <v>2</v>
@@ -8623,22 +8623,22 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E200" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F200" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J200" t="inlineStr">
         <is>
@@ -8664,22 +8664,22 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E201" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F201" t="n">
         <v>0</v>
       </c>
       <c r="G201" t="n">
+        <v>3</v>
+      </c>
+      <c r="H201" t="n">
         <v>-3</v>
       </c>
-      <c r="H201" t="n">
-        <v>2</v>
-      </c>
       <c r="I201" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J201" t="inlineStr">
         <is>
@@ -8705,22 +8705,22 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E202" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F202" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H202" t="n">
         <v>2</v>
       </c>
       <c r="I202" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J202" t="inlineStr">
         <is>
@@ -8746,19 +8746,19 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E203" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F203" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I203" t="n">
         <v>2</v>
@@ -8787,22 +8787,22 @@
         </is>
       </c>
       <c r="D204" t="n">
+        <v>3</v>
+      </c>
+      <c r="E204" t="n">
+        <v>3</v>
+      </c>
+      <c r="F204" t="n">
         <v>5</v>
       </c>
-      <c r="E204" t="n">
-        <v>3</v>
-      </c>
-      <c r="F204" t="n">
-        <v>3</v>
-      </c>
       <c r="G204" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H204" t="n">
         <v>2</v>
       </c>
       <c r="I204" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J204" t="inlineStr">
         <is>
@@ -8828,22 +8828,22 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E205" t="n">
+        <v>0</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0</v>
+      </c>
+      <c r="G205" t="n">
         <v>5</v>
       </c>
-      <c r="F205" t="n">
-        <v>0</v>
-      </c>
-      <c r="G205" t="n">
+      <c r="H205" t="n">
         <v>-5</v>
       </c>
-      <c r="H205" t="n">
-        <v>2</v>
-      </c>
       <c r="I205" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J205" t="inlineStr">
         <is>
@@ -8869,22 +8869,22 @@
         </is>
       </c>
       <c r="D206" t="n">
+        <v>1</v>
+      </c>
+      <c r="E206" t="n">
+        <v>6</v>
+      </c>
+      <c r="F206" t="n">
         <v>8</v>
       </c>
-      <c r="E206" t="n">
-        <v>3</v>
-      </c>
-      <c r="F206" t="n">
-        <v>6</v>
-      </c>
       <c r="G206" t="n">
+        <v>3</v>
+      </c>
+      <c r="H206" t="n">
         <v>5</v>
       </c>
-      <c r="H206" t="n">
-        <v>2</v>
-      </c>
       <c r="I206" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J206" t="inlineStr">
         <is>
@@ -8910,19 +8910,19 @@
         </is>
       </c>
       <c r="D207" t="n">
+        <v>2</v>
+      </c>
+      <c r="E207" t="n">
+        <v>6</v>
+      </c>
+      <c r="F207" t="n">
         <v>5</v>
       </c>
-      <c r="E207" t="n">
-        <v>1</v>
-      </c>
-      <c r="F207" t="n">
-        <v>6</v>
-      </c>
       <c r="G207" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I207" t="n">
         <v>2</v>
@@ -8954,19 +8954,19 @@
         <v>3</v>
       </c>
       <c r="E208" t="n">
+        <v>0</v>
+      </c>
+      <c r="F208" t="n">
+        <v>3</v>
+      </c>
+      <c r="G208" t="n">
         <v>6</v>
       </c>
-      <c r="F208" t="n">
-        <v>0</v>
-      </c>
-      <c r="G208" t="n">
+      <c r="H208" t="n">
         <v>-3</v>
       </c>
-      <c r="H208" t="n">
-        <v>2</v>
-      </c>
       <c r="I208" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J208" t="inlineStr">
         <is>
@@ -8992,22 +8992,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E209" t="n">
+        <v>0</v>
+      </c>
+      <c r="F209" t="n">
+        <v>1</v>
+      </c>
+      <c r="G209" t="n">
         <v>7</v>
       </c>
-      <c r="F209" t="n">
-        <v>0</v>
-      </c>
-      <c r="G209" t="n">
+      <c r="H209" t="n">
         <v>-6</v>
       </c>
-      <c r="H209" t="n">
-        <v>2</v>
-      </c>
       <c r="I209" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J209" t="inlineStr">
         <is>
@@ -9033,22 +9033,22 @@
         </is>
       </c>
       <c r="D210" t="n">
+        <v>1</v>
+      </c>
+      <c r="E210" t="n">
+        <v>6</v>
+      </c>
+      <c r="F210" t="n">
         <v>5</v>
       </c>
-      <c r="E210" t="n">
-        <v>1</v>
-      </c>
-      <c r="F210" t="n">
-        <v>6</v>
-      </c>
       <c r="G210" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I210" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J210" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E211" t="n">
         <v>3</v>
@@ -9083,10 +9083,10 @@
         <v>3</v>
       </c>
       <c r="G211" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
         <v>2</v>
@@ -9115,22 +9115,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E212" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F212" t="n">
         <v>1</v>
       </c>
       <c r="G212" t="n">
+        <v>2</v>
+      </c>
+      <c r="H212" t="n">
         <v>-1</v>
       </c>
-      <c r="H212" t="n">
-        <v>2</v>
-      </c>
       <c r="I212" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J212" t="inlineStr">
         <is>
@@ -9156,22 +9156,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E213" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G213" t="n">
+        <v>3</v>
+      </c>
+      <c r="H213" t="n">
         <v>-3</v>
       </c>
-      <c r="H213" t="n">
-        <v>2</v>
-      </c>
       <c r="I213" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J213" t="inlineStr">
         <is>
@@ -9197,22 +9197,22 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E214" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F214" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G214" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I214" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J214" t="inlineStr">
         <is>
@@ -9241,16 +9241,16 @@
         <v>2</v>
       </c>
       <c r="E215" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F215" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="n">
         <v>2</v>
@@ -9282,19 +9282,19 @@
         <v>3</v>
       </c>
       <c r="E216" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F216" t="n">
         <v>3</v>
       </c>
       <c r="G216" t="n">
+        <v>4</v>
+      </c>
+      <c r="H216" t="n">
         <v>-1</v>
       </c>
-      <c r="H216" t="n">
-        <v>2</v>
-      </c>
       <c r="I216" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J216" t="inlineStr">
         <is>
@@ -9320,22 +9320,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E217" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G217" t="n">
+        <v>4</v>
+      </c>
+      <c r="H217" t="n">
         <v>-2</v>
       </c>
-      <c r="H217" t="n">
-        <v>2</v>
-      </c>
       <c r="I217" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J217" t="inlineStr">
         <is>
@@ -9361,22 +9361,22 @@
         </is>
       </c>
       <c r="D218" t="n">
+        <v>1</v>
+      </c>
+      <c r="E218" t="n">
+        <v>6</v>
+      </c>
+      <c r="F218" t="n">
         <v>8</v>
       </c>
-      <c r="E218" t="n">
-        <v>2</v>
-      </c>
-      <c r="F218" t="n">
+      <c r="G218" t="n">
+        <v>2</v>
+      </c>
+      <c r="H218" t="n">
         <v>6</v>
       </c>
-      <c r="G218" t="n">
-        <v>6</v>
-      </c>
-      <c r="H218" t="n">
-        <v>2</v>
-      </c>
       <c r="I218" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J218" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E219" t="n">
         <v>3</v>
@@ -9411,10 +9411,10 @@
         <v>3</v>
       </c>
       <c r="G219" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="n">
         <v>2</v>
@@ -9443,22 +9443,22 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E220" t="n">
+        <v>3</v>
+      </c>
+      <c r="F220" t="n">
+        <v>4</v>
+      </c>
+      <c r="G220" t="n">
         <v>6</v>
       </c>
-      <c r="F220" t="n">
-        <v>3</v>
-      </c>
-      <c r="G220" t="n">
+      <c r="H220" t="n">
         <v>-2</v>
       </c>
-      <c r="H220" t="n">
-        <v>2</v>
-      </c>
       <c r="I220" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J220" t="inlineStr">
         <is>
@@ -9484,22 +9484,22 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E221" t="n">
+        <v>0</v>
+      </c>
+      <c r="F221" t="n">
+        <v>1</v>
+      </c>
+      <c r="G221" t="n">
         <v>5</v>
       </c>
-      <c r="F221" t="n">
-        <v>0</v>
-      </c>
-      <c r="G221" t="n">
+      <c r="H221" t="n">
         <v>-4</v>
       </c>
-      <c r="H221" t="n">
-        <v>2</v>
-      </c>
       <c r="I221" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J221" t="inlineStr">
         <is>
@@ -9525,22 +9525,22 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E222" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F222" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G222" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H222" t="n">
         <v>2</v>
       </c>
       <c r="I222" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J222" t="inlineStr">
         <is>
@@ -9566,19 +9566,19 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E223" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F223" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I223" t="n">
         <v>2</v>
@@ -9607,22 +9607,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E224" t="n">
         <v>1</v>
       </c>
       <c r="F224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G224" t="n">
+        <v>1</v>
+      </c>
+      <c r="H224" t="n">
         <v>-1</v>
       </c>
-      <c r="H224" t="n">
-        <v>2</v>
-      </c>
       <c r="I224" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J224" t="inlineStr">
         <is>
@@ -9648,22 +9648,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E225" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G225" t="n">
+        <v>3</v>
+      </c>
+      <c r="H225" t="n">
         <v>-2</v>
       </c>
-      <c r="H225" t="n">
-        <v>2</v>
-      </c>
       <c r="I225" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J225" t="inlineStr">
         <is>
@@ -9689,22 +9689,22 @@
         </is>
       </c>
       <c r="D226" t="n">
+        <v>1</v>
+      </c>
+      <c r="E226" t="n">
+        <v>4</v>
+      </c>
+      <c r="F226" t="n">
         <v>6</v>
       </c>
-      <c r="E226" t="n">
-        <v>2</v>
-      </c>
-      <c r="F226" t="n">
-        <v>4</v>
-      </c>
       <c r="G226" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I226" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J226" t="inlineStr">
         <is>
@@ -9730,19 +9730,19 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E227" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F227" t="n">
         <v>4</v>
       </c>
       <c r="G227" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I227" t="n">
         <v>2</v>
@@ -9774,19 +9774,19 @@
         <v>3</v>
       </c>
       <c r="E228" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F228" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G228" t="n">
+        <v>4</v>
+      </c>
+      <c r="H228" t="n">
         <v>-1</v>
       </c>
-      <c r="H228" t="n">
-        <v>2</v>
-      </c>
       <c r="I228" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J228" t="inlineStr">
         <is>
@@ -9812,22 +9812,22 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E229" t="n">
+        <v>1</v>
+      </c>
+      <c r="F229" t="n">
+        <v>2</v>
+      </c>
+      <c r="G229" t="n">
         <v>6</v>
       </c>
-      <c r="F229" t="n">
-        <v>1</v>
-      </c>
-      <c r="G229" t="n">
+      <c r="H229" t="n">
         <v>-4</v>
       </c>
-      <c r="H229" t="n">
-        <v>2</v>
-      </c>
       <c r="I229" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J229" t="inlineStr">
         <is>
@@ -9853,22 +9853,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E230" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F230" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H230" t="n">
         <v>2</v>
       </c>
       <c r="I230" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J230" t="inlineStr">
         <is>
@@ -9894,19 +9894,19 @@
         </is>
       </c>
       <c r="D231" t="n">
+        <v>2</v>
+      </c>
+      <c r="E231" t="n">
+        <v>3</v>
+      </c>
+      <c r="F231" t="n">
         <v>5</v>
       </c>
-      <c r="E231" t="n">
-        <v>4</v>
-      </c>
-      <c r="F231" t="n">
-        <v>3</v>
-      </c>
       <c r="G231" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I231" t="n">
         <v>2</v>
@@ -9935,22 +9935,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F232" t="n">
         <v>1</v>
       </c>
       <c r="G232" t="n">
+        <v>2</v>
+      </c>
+      <c r="H232" t="n">
         <v>-1</v>
       </c>
-      <c r="H232" t="n">
-        <v>2</v>
-      </c>
       <c r="I232" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J232" t="inlineStr">
         <is>
@@ -9976,22 +9976,22 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E233" t="n">
+        <v>1</v>
+      </c>
+      <c r="F233" t="n">
+        <v>3</v>
+      </c>
+      <c r="G233" t="n">
         <v>5</v>
       </c>
-      <c r="F233" t="n">
-        <v>1</v>
-      </c>
-      <c r="G233" t="n">
+      <c r="H233" t="n">
         <v>-2</v>
       </c>
-      <c r="H233" t="n">
-        <v>2</v>
-      </c>
       <c r="I233" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J233" t="inlineStr">
         <is>
@@ -10017,22 +10017,22 @@
         </is>
       </c>
       <c r="D234" t="n">
+        <v>1</v>
+      </c>
+      <c r="E234" t="n">
+        <v>6</v>
+      </c>
+      <c r="F234" t="n">
         <v>8</v>
       </c>
-      <c r="E234" t="n">
-        <v>1</v>
-      </c>
-      <c r="F234" t="n">
-        <v>6</v>
-      </c>
       <c r="G234" t="n">
+        <v>1</v>
+      </c>
+      <c r="H234" t="n">
         <v>7</v>
       </c>
-      <c r="H234" t="n">
-        <v>2</v>
-      </c>
       <c r="I234" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J234" t="inlineStr">
         <is>
@@ -10061,13 +10061,13 @@
         <v>2</v>
       </c>
       <c r="E235" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F235" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H235" t="n">
         <v>2</v>
@@ -10099,22 +10099,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E236" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G236" t="n">
+        <v>4</v>
+      </c>
+      <c r="H236" t="n">
         <v>-3</v>
       </c>
-      <c r="H236" t="n">
-        <v>2</v>
-      </c>
       <c r="I236" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J236" t="inlineStr">
         <is>
@@ -10140,22 +10140,22 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E237" t="n">
+        <v>0</v>
+      </c>
+      <c r="F237" t="n">
+        <v>0</v>
+      </c>
+      <c r="G237" t="n">
         <v>6</v>
       </c>
-      <c r="F237" t="n">
-        <v>0</v>
-      </c>
-      <c r="G237" t="n">
+      <c r="H237" t="n">
         <v>-6</v>
       </c>
-      <c r="H237" t="n">
-        <v>2</v>
-      </c>
       <c r="I237" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J237" t="inlineStr">
         <is>
@@ -10181,22 +10181,22 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E238" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F238" t="n">
         <v>4</v>
       </c>
       <c r="G238" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I238" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J238" t="inlineStr">
         <is>
@@ -10222,19 +10222,19 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E239" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F239" t="n">
         <v>4</v>
       </c>
       <c r="G239" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I239" t="n">
         <v>2</v>
@@ -10263,22 +10263,22 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E240" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F240" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J240" t="inlineStr">
         <is>
@@ -10304,22 +10304,22 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F241" t="n">
         <v>0</v>
       </c>
       <c r="G241" t="n">
+        <v>2</v>
+      </c>
+      <c r="H241" t="n">
         <v>-2</v>
       </c>
-      <c r="H241" t="n">
-        <v>2</v>
-      </c>
       <c r="I241" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J241" t="inlineStr">
         <is>
@@ -10345,22 +10345,22 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E242" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F242" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G242" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H242" t="n">
         <v>2</v>
       </c>
       <c r="I242" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J242" t="inlineStr">
         <is>
@@ -10389,16 +10389,16 @@
         <v>2</v>
       </c>
       <c r="E243" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F243" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I243" t="n">
         <v>2</v>
@@ -10427,22 +10427,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E244" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F244" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G244" t="n">
+        <v>3</v>
+      </c>
+      <c r="H244" t="n">
         <v>-1</v>
       </c>
-      <c r="H244" t="n">
-        <v>2</v>
-      </c>
       <c r="I244" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J244" t="inlineStr">
         <is>
@@ -10468,22 +10468,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F245" t="n">
         <v>0</v>
       </c>
       <c r="G245" t="n">
+        <v>2</v>
+      </c>
+      <c r="H245" t="n">
         <v>-2</v>
       </c>
-      <c r="H245" t="n">
-        <v>2</v>
-      </c>
       <c r="I245" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J245" t="inlineStr">
         <is>
@@ -10509,22 +10509,22 @@
         </is>
       </c>
       <c r="D246" t="n">
+        <v>1</v>
+      </c>
+      <c r="E246" t="n">
+        <v>6</v>
+      </c>
+      <c r="F246" t="n">
         <v>5</v>
       </c>
-      <c r="E246" t="n">
-        <v>0</v>
-      </c>
-      <c r="F246" t="n">
-        <v>6</v>
-      </c>
       <c r="G246" t="n">
+        <v>0</v>
+      </c>
+      <c r="H246" t="n">
         <v>5</v>
       </c>
-      <c r="H246" t="n">
-        <v>2</v>
-      </c>
       <c r="I246" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J246" t="inlineStr">
         <is>
@@ -10553,16 +10553,16 @@
         <v>2</v>
       </c>
       <c r="E247" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F247" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="n">
         <v>2</v>
@@ -10591,22 +10591,22 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E248" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F248" t="n">
         <v>1</v>
       </c>
       <c r="G248" t="n">
+        <v>3</v>
+      </c>
+      <c r="H248" t="n">
         <v>-2</v>
       </c>
-      <c r="H248" t="n">
-        <v>2</v>
-      </c>
       <c r="I248" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J248" t="inlineStr">
         <is>
@@ -10632,22 +10632,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E249" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F249" t="n">
         <v>1</v>
       </c>
       <c r="G249" t="n">
+        <v>4</v>
+      </c>
+      <c r="H249" t="n">
         <v>-3</v>
       </c>
-      <c r="H249" t="n">
-        <v>2</v>
-      </c>
       <c r="I249" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J249" t="inlineStr">
         <is>
@@ -10673,22 +10673,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E250" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F250" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G250" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H250" t="n">
         <v>2</v>
       </c>
       <c r="I250" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J250" t="inlineStr">
         <is>
@@ -10714,19 +10714,19 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E251" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F251" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G251" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I251" t="n">
         <v>2</v>
@@ -10755,22 +10755,22 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E252" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F252" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J252" t="inlineStr">
         <is>
@@ -10796,22 +10796,22 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E253" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F253" t="n">
         <v>0</v>
       </c>
       <c r="G253" t="n">
+        <v>3</v>
+      </c>
+      <c r="H253" t="n">
         <v>-3</v>
       </c>
-      <c r="H253" t="n">
-        <v>2</v>
-      </c>
       <c r="I253" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J253" t="inlineStr">
         <is>
@@ -10837,22 +10837,22 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E254" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F254" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G254" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H254" t="n">
         <v>2</v>
       </c>
       <c r="I254" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J254" t="inlineStr">
         <is>
@@ -10881,16 +10881,16 @@
         <v>2</v>
       </c>
       <c r="E255" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F255" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="n">
         <v>2</v>
@@ -10919,22 +10919,22 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E256" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F256" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J256" t="inlineStr">
         <is>
@@ -10960,22 +10960,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E257" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G257" t="n">
+        <v>3</v>
+      </c>
+      <c r="H257" t="n">
         <v>-2</v>
       </c>
-      <c r="H257" t="n">
-        <v>2</v>
-      </c>
       <c r="I257" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J257" t="inlineStr">
         <is>
@@ -11001,22 +11001,22 @@
         </is>
       </c>
       <c r="D258" t="n">
+        <v>1</v>
+      </c>
+      <c r="E258" t="n">
+        <v>6</v>
+      </c>
+      <c r="F258" t="n">
         <v>8</v>
       </c>
-      <c r="E258" t="n">
-        <v>2</v>
-      </c>
-      <c r="F258" t="n">
+      <c r="G258" t="n">
+        <v>2</v>
+      </c>
+      <c r="H258" t="n">
         <v>6</v>
       </c>
-      <c r="G258" t="n">
-        <v>6</v>
-      </c>
-      <c r="H258" t="n">
-        <v>2</v>
-      </c>
       <c r="I258" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J258" t="inlineStr">
         <is>
@@ -11042,19 +11042,19 @@
         </is>
       </c>
       <c r="D259" t="n">
+        <v>2</v>
+      </c>
+      <c r="E259" t="n">
+        <v>6</v>
+      </c>
+      <c r="F259" t="n">
         <v>8</v>
       </c>
-      <c r="E259" t="n">
-        <v>2</v>
-      </c>
-      <c r="F259" t="n">
+      <c r="G259" t="n">
+        <v>2</v>
+      </c>
+      <c r="H259" t="n">
         <v>6</v>
-      </c>
-      <c r="G259" t="n">
-        <v>6</v>
-      </c>
-      <c r="H259" t="n">
-        <v>2</v>
       </c>
       <c r="I259" t="n">
         <v>2</v>
@@ -11086,19 +11086,19 @@
         <v>3</v>
       </c>
       <c r="E260" t="n">
+        <v>0</v>
+      </c>
+      <c r="F260" t="n">
+        <v>3</v>
+      </c>
+      <c r="G260" t="n">
         <v>7</v>
       </c>
-      <c r="F260" t="n">
-        <v>0</v>
-      </c>
-      <c r="G260" t="n">
+      <c r="H260" t="n">
         <v>-4</v>
       </c>
-      <c r="H260" t="n">
-        <v>2</v>
-      </c>
       <c r="I260" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J260" t="inlineStr">
         <is>
@@ -11124,22 +11124,22 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E261" t="n">
+        <v>0</v>
+      </c>
+      <c r="F261" t="n">
+        <v>1</v>
+      </c>
+      <c r="G261" t="n">
         <v>9</v>
       </c>
-      <c r="F261" t="n">
-        <v>0</v>
-      </c>
-      <c r="G261" t="n">
+      <c r="H261" t="n">
         <v>-8</v>
       </c>
-      <c r="H261" t="n">
-        <v>2</v>
-      </c>
       <c r="I261" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J261" t="inlineStr">
         <is>
@@ -11165,22 +11165,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E262" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F262" t="n">
         <v>4</v>
       </c>
       <c r="G262" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I262" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J262" t="inlineStr">
         <is>
@@ -11206,19 +11206,19 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E263" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F263" t="n">
         <v>4</v>
       </c>
       <c r="G263" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I263" t="n">
         <v>2</v>
@@ -11247,13 +11247,13 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E264" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F264" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G264" t="n">
         <v>2</v>
@@ -11262,7 +11262,7 @@
         <v>2</v>
       </c>
       <c r="I264" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J264" t="inlineStr">
         <is>
@@ -11288,22 +11288,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E265" t="n">
+        <v>0</v>
+      </c>
+      <c r="F265" t="n">
+        <v>1</v>
+      </c>
+      <c r="G265" t="n">
         <v>5</v>
       </c>
-      <c r="F265" t="n">
-        <v>0</v>
-      </c>
-      <c r="G265" t="n">
+      <c r="H265" t="n">
         <v>-4</v>
       </c>
-      <c r="H265" t="n">
-        <v>2</v>
-      </c>
       <c r="I265" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J265" t="inlineStr">
         <is>
@@ -11329,22 +11329,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E266" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F266" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H266" t="n">
         <v>2</v>
       </c>
       <c r="I266" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J266" t="inlineStr">
         <is>
@@ -11370,16 +11370,16 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E267" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F267" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G267" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H267" t="n">
         <v>2</v>
@@ -11420,13 +11420,13 @@
         <v>3</v>
       </c>
       <c r="G268" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J268" t="inlineStr">
         <is>
@@ -11452,22 +11452,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E269" t="n">
+        <v>0</v>
+      </c>
+      <c r="F269" t="n">
+        <v>1</v>
+      </c>
+      <c r="G269" t="n">
         <v>5</v>
       </c>
-      <c r="F269" t="n">
-        <v>0</v>
-      </c>
-      <c r="G269" t="n">
+      <c r="H269" t="n">
         <v>-4</v>
       </c>
-      <c r="H269" t="n">
-        <v>2</v>
-      </c>
       <c r="I269" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J269" t="inlineStr">
         <is>
@@ -11493,22 +11493,22 @@
         </is>
       </c>
       <c r="D270" t="n">
+        <v>1</v>
+      </c>
+      <c r="E270" t="n">
+        <v>4</v>
+      </c>
+      <c r="F270" t="n">
         <v>6</v>
       </c>
-      <c r="E270" t="n">
-        <v>2</v>
-      </c>
-      <c r="F270" t="n">
-        <v>4</v>
-      </c>
       <c r="G270" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I270" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J270" t="inlineStr">
         <is>
@@ -11534,19 +11534,19 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E271" t="n">
+        <v>3</v>
+      </c>
+      <c r="F271" t="n">
+        <v>4</v>
+      </c>
+      <c r="G271" t="n">
         <v>6</v>
       </c>
-      <c r="F271" t="n">
-        <v>3</v>
-      </c>
-      <c r="G271" t="n">
+      <c r="H271" t="n">
         <v>-2</v>
-      </c>
-      <c r="H271" t="n">
-        <v>2</v>
       </c>
       <c r="I271" t="n">
         <v>2</v>
@@ -11575,22 +11575,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E272" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J272" t="inlineStr">
         <is>
@@ -11616,22 +11616,22 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E273" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F273" t="n">
         <v>1</v>
       </c>
       <c r="G273" t="n">
+        <v>3</v>
+      </c>
+      <c r="H273" t="n">
         <v>-2</v>
       </c>
-      <c r="H273" t="n">
-        <v>2</v>
-      </c>
       <c r="I273" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J273" t="inlineStr">
         <is>
@@ -11657,22 +11657,22 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E274" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F274" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H274" t="n">
         <v>2</v>
       </c>
       <c r="I274" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J274" t="inlineStr">
         <is>
@@ -11698,19 +11698,19 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E275" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F275" t="n">
         <v>3</v>
       </c>
       <c r="G275" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I275" t="n">
         <v>2</v>
@@ -11739,22 +11739,22 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E276" t="n">
         <v>3</v>
       </c>
       <c r="F276" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G276" t="n">
+        <v>3</v>
+      </c>
+      <c r="H276" t="n">
         <v>-1</v>
       </c>
-      <c r="H276" t="n">
-        <v>2</v>
-      </c>
       <c r="I276" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J276" t="inlineStr">
         <is>
@@ -11780,22 +11780,22 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E277" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G277" t="n">
+        <v>2</v>
+      </c>
+      <c r="H277" t="n">
         <v>-2</v>
       </c>
-      <c r="H277" t="n">
-        <v>2</v>
-      </c>
       <c r="I277" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J277" t="inlineStr">
         <is>
@@ -11821,22 +11821,22 @@
         </is>
       </c>
       <c r="D278" t="n">
+        <v>1</v>
+      </c>
+      <c r="E278" t="n">
         <v>6</v>
-      </c>
-      <c r="E278" t="n">
-        <v>2</v>
       </c>
       <c r="F278" t="n">
         <v>6</v>
       </c>
       <c r="G278" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I278" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J278" t="inlineStr">
         <is>
@@ -11865,16 +11865,16 @@
         <v>2</v>
       </c>
       <c r="E279" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F279" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G279" t="n">
+        <v>4</v>
+      </c>
+      <c r="H279" t="n">
         <v>-2</v>
-      </c>
-      <c r="H279" t="n">
-        <v>2</v>
       </c>
       <c r="I279" t="n">
         <v>2</v>
@@ -11903,22 +11903,22 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F280" t="n">
         <v>1</v>
       </c>
       <c r="G280" t="n">
+        <v>2</v>
+      </c>
+      <c r="H280" t="n">
         <v>-1</v>
       </c>
-      <c r="H280" t="n">
-        <v>2</v>
-      </c>
       <c r="I280" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J280" t="inlineStr">
         <is>
@@ -11944,22 +11944,22 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E281" t="n">
         <v>1</v>
       </c>
       <c r="F281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G281" t="n">
+        <v>1</v>
+      </c>
+      <c r="H281" t="n">
         <v>-1</v>
       </c>
-      <c r="H281" t="n">
-        <v>2</v>
-      </c>
       <c r="I281" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J281" t="inlineStr">
         <is>
@@ -11985,22 +11985,22 @@
         </is>
       </c>
       <c r="D282" t="n">
+        <v>1</v>
+      </c>
+      <c r="E282" t="n">
+        <v>4</v>
+      </c>
+      <c r="F282" t="n">
         <v>8</v>
       </c>
-      <c r="E282" t="n">
-        <v>1</v>
-      </c>
-      <c r="F282" t="n">
-        <v>4</v>
-      </c>
       <c r="G282" t="n">
+        <v>1</v>
+      </c>
+      <c r="H282" t="n">
         <v>7</v>
       </c>
-      <c r="H282" t="n">
-        <v>2</v>
-      </c>
       <c r="I282" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J282" t="inlineStr">
         <is>
@@ -12029,16 +12029,16 @@
         <v>2</v>
       </c>
       <c r="E283" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F283" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="n">
         <v>2</v>
@@ -12067,22 +12067,22 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E284" t="n">
+        <v>3</v>
+      </c>
+      <c r="F284" t="n">
+        <v>1</v>
+      </c>
+      <c r="G284" t="n">
         <v>7</v>
       </c>
-      <c r="F284" t="n">
-        <v>3</v>
-      </c>
-      <c r="G284" t="n">
+      <c r="H284" t="n">
         <v>-6</v>
       </c>
-      <c r="H284" t="n">
-        <v>2</v>
-      </c>
       <c r="I284" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J284" t="inlineStr">
         <is>
@@ -12108,22 +12108,22 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E285" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F285" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G285" t="n">
+        <v>3</v>
+      </c>
+      <c r="H285" t="n">
         <v>-1</v>
       </c>
-      <c r="H285" t="n">
-        <v>2</v>
-      </c>
       <c r="I285" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J285" t="inlineStr">
         <is>
@@ -12149,22 +12149,22 @@
         </is>
       </c>
       <c r="D286" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E286" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F286" t="n">
         <v>4</v>
       </c>
       <c r="G286" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I286" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J286" t="inlineStr">
         <is>
@@ -12193,13 +12193,13 @@
         <v>2</v>
       </c>
       <c r="E287" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F287" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H287" t="n">
         <v>2</v>
@@ -12231,22 +12231,22 @@
         </is>
       </c>
       <c r="D288" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E288" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F288" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G288" t="n">
+        <v>2</v>
+      </c>
+      <c r="H288" t="n">
         <v>-1</v>
       </c>
-      <c r="H288" t="n">
-        <v>2</v>
-      </c>
       <c r="I288" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J288" t="inlineStr">
         <is>
@@ -12272,22 +12272,22 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E289" t="n">
+        <v>0</v>
+      </c>
+      <c r="F289" t="n">
+        <v>1</v>
+      </c>
+      <c r="G289" t="n">
         <v>5</v>
       </c>
-      <c r="F289" t="n">
-        <v>0</v>
-      </c>
-      <c r="G289" t="n">
+      <c r="H289" t="n">
         <v>-4</v>
       </c>
-      <c r="H289" t="n">
-        <v>2</v>
-      </c>
       <c r="I289" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J289" t="inlineStr">
         <is>
@@ -12313,22 +12313,22 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E290" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F290" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G290" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I290" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J290" t="inlineStr">
         <is>
@@ -12354,19 +12354,19 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E291" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F291" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="n">
         <v>2</v>
@@ -12398,19 +12398,19 @@
         <v>3</v>
       </c>
       <c r="E292" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F292" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G292" t="n">
+        <v>4</v>
+      </c>
+      <c r="H292" t="n">
         <v>-1</v>
       </c>
-      <c r="H292" t="n">
-        <v>2</v>
-      </c>
       <c r="I292" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J292" t="inlineStr">
         <is>
@@ -12436,22 +12436,22 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E293" t="n">
+        <v>1</v>
+      </c>
+      <c r="F293" t="n">
+        <v>3</v>
+      </c>
+      <c r="G293" t="n">
         <v>5</v>
       </c>
-      <c r="F293" t="n">
-        <v>1</v>
-      </c>
-      <c r="G293" t="n">
+      <c r="H293" t="n">
         <v>-2</v>
       </c>
-      <c r="H293" t="n">
-        <v>2</v>
-      </c>
       <c r="I293" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J293" t="inlineStr">
         <is>
@@ -12477,22 +12477,22 @@
         </is>
       </c>
       <c r="D294" t="n">
+        <v>1</v>
+      </c>
+      <c r="E294" t="n">
+        <v>6</v>
+      </c>
+      <c r="F294" t="n">
         <v>5</v>
       </c>
-      <c r="E294" t="n">
-        <v>2</v>
-      </c>
-      <c r="F294" t="n">
-        <v>6</v>
-      </c>
       <c r="G294" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I294" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J294" t="inlineStr">
         <is>
@@ -12518,19 +12518,19 @@
         </is>
       </c>
       <c r="D295" t="n">
+        <v>2</v>
+      </c>
+      <c r="E295" t="n">
+        <v>3</v>
+      </c>
+      <c r="F295" t="n">
         <v>5</v>
       </c>
-      <c r="E295" t="n">
+      <c r="G295" t="n">
         <v>5</v>
       </c>
-      <c r="F295" t="n">
-        <v>3</v>
-      </c>
-      <c r="G295" t="n">
-        <v>0</v>
-      </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="n">
         <v>2</v>
@@ -12559,22 +12559,22 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E296" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F296" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G296" t="n">
+        <v>3</v>
+      </c>
+      <c r="H296" t="n">
         <v>-1</v>
       </c>
-      <c r="H296" t="n">
-        <v>2</v>
-      </c>
       <c r="I296" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J296" t="inlineStr">
         <is>
@@ -12600,22 +12600,22 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E297" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G297" t="n">
+        <v>2</v>
+      </c>
+      <c r="H297" t="n">
         <v>-2</v>
       </c>
-      <c r="H297" t="n">
-        <v>2</v>
-      </c>
       <c r="I297" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J297" t="inlineStr">
         <is>
